--- a/results/mp/tinybert/corona/confidence/210/0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,22 +40,13 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>chaos</t>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
@@ -64,217 +55,187 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>war</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>war</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>risk</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>brilliant</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>increased</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
-    <t>new</t>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>our</t>
@@ -283,58 +244,88 @@
     <t>shopping</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>my</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>at</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>!</t>
+    <t>as</t>
+  </si>
+  <si>
+    <t>it</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>for</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>corona</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -692,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -761,13 +752,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -779,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -811,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -829,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -861,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.92</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -879,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -903,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -911,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -929,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -953,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -961,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -979,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1003,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1011,13 +1002,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.52</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1029,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.96875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1053,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1061,13 +1052,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1079,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.9583333333333334</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1103,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1111,13 +1102,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7337662337662337</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C10">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1129,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.9166666666666666</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1153,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1161,13 +1152,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7272727272727273</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1179,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1203,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1211,13 +1202,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1229,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.9</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1261,13 +1252,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5625</v>
+        <v>0.2054263565891473</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1279,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>410</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="L13">
+        <v>32</v>
+      </c>
+      <c r="M13">
+        <v>32</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>7</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L13">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <v>8</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1311,13 +1302,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4210526315789473</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1329,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.8823529411764706</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1353,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1361,13 +1352,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3928571428571428</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1379,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.875</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1403,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1411,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.375</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1429,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.8518518518518519</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1453,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1461,13 +1452,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3648068669527897</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1479,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>148</v>
+        <v>330</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>0.8461538461538461</v>
+        <v>0.7890625</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1503,45 +1494,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>14</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>0.8392857142857143</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1553,39 +1520,15 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>15</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>0.8333333333333334</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L19">
         <v>45</v>
@@ -1603,45 +1546,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="C20">
-        <v>27</v>
-      </c>
-      <c r="D20">
-        <v>27</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>59</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.8275862068965517</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1653,45 +1572,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.225</v>
-      </c>
-      <c r="C21">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>62</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>0.8181818181818182</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1703,45 +1598,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="C22">
-        <v>25</v>
-      </c>
-      <c r="D22">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>110</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.803921568627451</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1753,95 +1624,47 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>12</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>98</v>
-      </c>
       <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.68125</v>
+      </c>
+      <c r="L23">
+        <v>109</v>
+      </c>
+      <c r="M23">
+        <v>109</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>51</v>
       </c>
-      <c r="K23">
-        <v>0.7948717948717948</v>
-      </c>
-      <c r="L23">
-        <v>31</v>
-      </c>
-      <c r="M23">
-        <v>31</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>8</v>
-      </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.04838709677419355</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>177</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.7777777777777778</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1853,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.7777777777777778</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L25">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1879,21 +1702,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.7647058823529411</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1905,21 +1728,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1931,47 +1754,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.7307692307692307</v>
+        <v>0.62</v>
       </c>
       <c r="L28">
+        <v>31</v>
+      </c>
+      <c r="M28">
+        <v>31</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>19</v>
-      </c>
-      <c r="M28">
-        <v>19</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.7241379310344828</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1983,21 +1806,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.7083333333333334</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2009,21 +1832,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.7</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L31">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2035,21 +1858,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.7</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L32">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2061,21 +1884,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.6923076923076923</v>
+        <v>0.5326370757180157</v>
       </c>
       <c r="L33">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="M33">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2087,15 +1910,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
         <v>17</v>
@@ -2113,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.6666666666666666</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2139,21 +1962,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.6575342465753424</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L36">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="M36">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2165,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.64</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2191,21 +2014,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.5909090909090909</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2217,21 +2040,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.4</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2243,21 +2066,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.5789473684210527</v>
+        <v>0.4</v>
       </c>
       <c r="L40">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2269,21 +2092,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.5774647887323944</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L41">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2295,21 +2118,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.5714285714285714</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2321,21 +2144,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.5384615384615384</v>
+        <v>0.3807531380753138</v>
       </c>
       <c r="L43">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2347,21 +2170,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.5347222222222222</v>
+        <v>0.375</v>
       </c>
       <c r="L44">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2373,21 +2196,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.5217391304347826</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L45">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2399,21 +2222,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.34375</v>
       </c>
       <c r="L46">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2425,21 +2248,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K47">
-        <v>0.4883720930232558</v>
+        <v>0.3</v>
       </c>
       <c r="L47">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2451,21 +2274,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K48">
-        <v>0.4705882352941176</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L48">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2477,21 +2300,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K49">
-        <v>0.4333333333333333</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2503,15 +2326,15 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K50">
-        <v>0.4285714285714285</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="L50">
         <v>15</v>
@@ -2529,21 +2352,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K51">
-        <v>0.4166666666666667</v>
+        <v>0.0436241610738255</v>
       </c>
       <c r="L51">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="M51">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2555,21 +2378,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>14</v>
+        <v>855</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K52">
-        <v>0.3783783783783784</v>
+        <v>0.0430622009569378</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2581,21 +2404,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K53">
-        <v>0.36</v>
+        <v>0.04066985645933014</v>
       </c>
       <c r="L53">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2607,21 +2430,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>16</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K54">
-        <v>0.35</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="L54">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2633,21 +2456,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>13</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K55">
-        <v>0.3157894736842105</v>
+        <v>0.03329633740288569</v>
       </c>
       <c r="L55">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M55">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2659,21 +2482,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>26</v>
+        <v>871</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K56">
-        <v>0.25</v>
+        <v>0.03290676416819013</v>
       </c>
       <c r="L56">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M56">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2685,21 +2508,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K57">
-        <v>0.1481481481481481</v>
+        <v>0.03</v>
       </c>
       <c r="L57">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="M57">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2711,21 +2534,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>46</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K58">
-        <v>0.07291666666666667</v>
+        <v>0.02844638949671772</v>
       </c>
       <c r="L58">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2737,99 +2560,99 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>89</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K59">
-        <v>0.06766917293233082</v>
+        <v>0.02839756592292089</v>
       </c>
       <c r="L59">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M59">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>124</v>
+        <v>958</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K60">
-        <v>0.05741626794258373</v>
+        <v>0.02416052416052416</v>
       </c>
       <c r="L60">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="M60">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>197</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K61">
-        <v>0.03728070175438596</v>
+        <v>0.02317880794701987</v>
       </c>
       <c r="L61">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>439</v>
+        <v>590</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K62">
-        <v>0.03535353535353535</v>
+        <v>0.02277904328018223</v>
       </c>
       <c r="L62">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2841,47 +2664,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>191</v>
+        <v>858</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K63">
-        <v>0.03414634146341464</v>
+        <v>0.02003081664098613</v>
       </c>
       <c r="L63">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M63">
         <v>14</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>396</v>
+        <v>636</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K64">
-        <v>0.02857142857142857</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="L64">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M64">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2893,99 +2716,99 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>306</v>
+        <v>755</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K65">
-        <v>0.02857142857142857</v>
+        <v>0.0175</v>
       </c>
       <c r="L65">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M65">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>272</v>
+        <v>786</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K66">
-        <v>0.02816901408450704</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="L66">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="M66">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>414</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K67">
-        <v>0.01985111662531017</v>
+        <v>0.01632970451010887</v>
       </c>
       <c r="L67">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M67">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>395</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K68">
-        <v>0.01293103448275862</v>
+        <v>0.01614763552479815</v>
       </c>
       <c r="L68">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2997,267 +2820,371 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>916</v>
+        <v>853</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K69">
-        <v>0.01253918495297806</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="L69">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="M69">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="N69">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O69">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>630</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K70">
-        <v>0.01171458998935037</v>
+        <v>0.0157035175879397</v>
       </c>
       <c r="L70">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M70">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>928</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K71">
-        <v>0.01146131805157593</v>
+        <v>0.01549586776859504</v>
       </c>
       <c r="L71">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N71">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>1725</v>
+        <v>953</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K72">
-        <v>0.01079136690647482</v>
+        <v>0.01478953356086462</v>
       </c>
       <c r="L72">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>825</v>
+        <v>866</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K73">
-        <v>0.0106951871657754</v>
+        <v>0.01395007342143906</v>
       </c>
       <c r="L73">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M73">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N73">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O73">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>1110</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K74">
-        <v>0.007376185458377239</v>
+        <v>0.01389473684210526</v>
       </c>
       <c r="L74">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M74">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="N74">
-        <v>0.64</v>
+        <v>0.89</v>
       </c>
       <c r="O74">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>942</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K75">
-        <v>0.006263048016701462</v>
+        <v>0.01389210465385506</v>
       </c>
       <c r="L75">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="M75">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>1904</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K76">
-        <v>0.004529441368897836</v>
+        <v>0.01353528843055108</v>
       </c>
       <c r="L76">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M76">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="N76">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="O76">
-        <v>0.18</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>1978</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K77">
-        <v>0.004481434058898848</v>
+        <v>0.01302083333333333</v>
       </c>
       <c r="L77">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="M77">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="N77">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O77">
-        <v>0.22</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>1555</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K78">
-        <v>0.004383218534752661</v>
+        <v>0.01181941484208487</v>
       </c>
       <c r="L78">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="M78">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>1590</v>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K79">
+        <v>0.009544468546637744</v>
+      </c>
+      <c r="L79">
+        <v>22</v>
+      </c>
+      <c r="M79">
+        <v>26</v>
+      </c>
+      <c r="N79">
+        <v>0.85</v>
+      </c>
+      <c r="O79">
+        <v>0.15</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K80">
+        <v>0.006566604127579738</v>
+      </c>
+      <c r="L80">
+        <v>21</v>
+      </c>
+      <c r="M80">
+        <v>24</v>
+      </c>
+      <c r="N80">
+        <v>0.88</v>
+      </c>
+      <c r="O80">
+        <v>0.12</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K81">
+        <v>0.00602688919796013</v>
+      </c>
+      <c r="L81">
+        <v>13</v>
+      </c>
+      <c r="M81">
+        <v>14</v>
+      </c>
+      <c r="N81">
+        <v>0.93</v>
+      </c>
+      <c r="O81">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K82">
+        <v>0.005847953216374269</v>
+      </c>
+      <c r="L82">
+        <v>14</v>
+      </c>
+      <c r="M82">
+        <v>14</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>2380</v>
       </c>
     </row>
   </sheetData>
